--- a/GoogleNet/lip.xlsx
+++ b/GoogleNet/lip.xlsx
@@ -1,18 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="29005"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dongmian/Documents/MATLAB/LipschitzCNN/GoogleNet/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MATLAB\LipschitzCNN\GoogleNet\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15840" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Lipschitz" sheetId="1" r:id="rId1"/>
+    <sheet name="LipschitzCpt" sheetId="2" r:id="rId1"/>
+    <sheet name="Lipschitz" sheetId="1" r:id="rId2"/>
+    <sheet name="Layer" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -27,10 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="129">
-  <si>
-    <t>'conv1_filter'</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="310">
   <si>
     <t>'conv1_bias'</t>
   </si>
@@ -59,9 +58,6 @@
     <t>'icp1_reduction2_bias'</t>
   </si>
   <si>
-    <t>'icp1_out0_filter'</t>
-  </si>
-  <si>
     <t>'icp1_out0_bias'</t>
   </si>
   <si>
@@ -414,12 +410,561 @@
   </si>
   <si>
     <t>norm</t>
+  </si>
+  <si>
+    <t>icp1_reduce</t>
+  </si>
+  <si>
+    <t>conv1</t>
+  </si>
+  <si>
+    <t>reduce2</t>
+  </si>
+  <si>
+    <t>conv2</t>
+  </si>
+  <si>
+    <t>icp1_conv</t>
+  </si>
+  <si>
+    <t>icp2_reduce</t>
+  </si>
+  <si>
+    <t>icp2_conv</t>
+  </si>
+  <si>
+    <t>icp3_reduce</t>
+  </si>
+  <si>
+    <t>icp3_conv</t>
+  </si>
+  <si>
+    <t>icp4_reduce</t>
+  </si>
+  <si>
+    <t>icp4_conv</t>
+  </si>
+  <si>
+    <t>icp5_reduce</t>
+  </si>
+  <si>
+    <t>icp5_conv</t>
+  </si>
+  <si>
+    <t>icp6_reduce</t>
+  </si>
+  <si>
+    <t>icp6_conv</t>
+  </si>
+  <si>
+    <t>icp7_reduce</t>
+  </si>
+  <si>
+    <t>icp7_conv</t>
+  </si>
+  <si>
+    <t>icp8_reduce</t>
+  </si>
+  <si>
+    <t>icp8_conv</t>
+  </si>
+  <si>
+    <t>icp9_reduce</t>
+  </si>
+  <si>
+    <t>icp9_conv</t>
+  </si>
+  <si>
+    <t>Layer</t>
+  </si>
+  <si>
+    <t>'conv1'</t>
+  </si>
+  <si>
+    <t>'relu1'</t>
+  </si>
+  <si>
+    <t>'pool1'</t>
+  </si>
+  <si>
+    <t>'norm1'</t>
+  </si>
+  <si>
+    <t>'reduction2'</t>
+  </si>
+  <si>
+    <t>'relu_reduction2'</t>
+  </si>
+  <si>
+    <t>'conv2'</t>
+  </si>
+  <si>
+    <t>'relu2'</t>
+  </si>
+  <si>
+    <t>'norm2'</t>
+  </si>
+  <si>
+    <t>'pool2'</t>
+  </si>
+  <si>
+    <t>'icp1_reduction1'</t>
+  </si>
+  <si>
+    <t>'relu_icp1_reduction1'</t>
+  </si>
+  <si>
+    <t>'icp1_reduction2'</t>
+  </si>
+  <si>
+    <t>'relu_icp1_reduction2'</t>
+  </si>
+  <si>
+    <t>'icp1_pool'</t>
+  </si>
+  <si>
+    <t>'icp1_out0'</t>
+  </si>
+  <si>
+    <t>'relu_icp1_out0'</t>
+  </si>
+  <si>
+    <t>'icp1_out1'</t>
+  </si>
+  <si>
+    <t>'relu_icp1_out1'</t>
+  </si>
+  <si>
+    <t>'icp1_out2'</t>
+  </si>
+  <si>
+    <t>'relu_icp1_out2'</t>
+  </si>
+  <si>
+    <t>'icp1_out3'</t>
+  </si>
+  <si>
+    <t>'relu_icp1_out3'</t>
+  </si>
+  <si>
+    <t>'icp2_in'</t>
+  </si>
+  <si>
+    <t>'icp2_reduction1'</t>
+  </si>
+  <si>
+    <t>'relu_icp2_reduction1'</t>
+  </si>
+  <si>
+    <t>'icp2_reduction2'</t>
+  </si>
+  <si>
+    <t>'relu_icp2_reduction2'</t>
+  </si>
+  <si>
+    <t>'icp2_pool'</t>
+  </si>
+  <si>
+    <t>'icp2_out0'</t>
+  </si>
+  <si>
+    <t>'relu_icp2_out0'</t>
+  </si>
+  <si>
+    <t>'icp2_out1'</t>
+  </si>
+  <si>
+    <t>'relu_icp2_out1'</t>
+  </si>
+  <si>
+    <t>'icp2_out2'</t>
+  </si>
+  <si>
+    <t>'relu_icp2_out2'</t>
+  </si>
+  <si>
+    <t>'icp2_out3'</t>
+  </si>
+  <si>
+    <t>'relu_icp2_out3'</t>
+  </si>
+  <si>
+    <t>'icp2_out'</t>
+  </si>
+  <si>
+    <t>'icp3_in'</t>
+  </si>
+  <si>
+    <t>'icp3_reduction1'</t>
+  </si>
+  <si>
+    <t>'relu_icp3_reduction1'</t>
+  </si>
+  <si>
+    <t>'icp3_reduction2'</t>
+  </si>
+  <si>
+    <t>'relu_icp3_reduction2'</t>
+  </si>
+  <si>
+    <t>'icp3_pool'</t>
+  </si>
+  <si>
+    <t>'icp3_out0'</t>
+  </si>
+  <si>
+    <t>'relu_icp3_out0'</t>
+  </si>
+  <si>
+    <t>'icp3_out1'</t>
+  </si>
+  <si>
+    <t>'relu_icp3_out1'</t>
+  </si>
+  <si>
+    <t>'icp3_out2'</t>
+  </si>
+  <si>
+    <t>'relu_icp3_out2'</t>
+  </si>
+  <si>
+    <t>'icp3_out3'</t>
+  </si>
+  <si>
+    <t>'relu_icp3_out3'</t>
+  </si>
+  <si>
+    <t>'icp3_out'</t>
+  </si>
+  <si>
+    <t>'cls1_pool'</t>
+  </si>
+  <si>
+    <t>'cls1_reduction'</t>
+  </si>
+  <si>
+    <t>'relu_cls1_reduction'</t>
+  </si>
+  <si>
+    <t>'cls1_fc1'</t>
+  </si>
+  <si>
+    <t>'relu_cls1_fc1'</t>
+  </si>
+  <si>
+    <t>'cls1_fc2'</t>
+  </si>
+  <si>
+    <t>'icp4_reduction1'</t>
+  </si>
+  <si>
+    <t>'relu_icp4_reduction1'</t>
+  </si>
+  <si>
+    <t>'icp4_reduction2'</t>
+  </si>
+  <si>
+    <t>'relu_icp4_reduction2'</t>
+  </si>
+  <si>
+    <t>'icp4_pool'</t>
+  </si>
+  <si>
+    <t>'icp4_out0'</t>
+  </si>
+  <si>
+    <t>'relu_icp4_out0'</t>
+  </si>
+  <si>
+    <t>'icp4_out1'</t>
+  </si>
+  <si>
+    <t>'relu_icp4_out1'</t>
+  </si>
+  <si>
+    <t>'icp4_out2'</t>
+  </si>
+  <si>
+    <t>'relu_icp4_out2'</t>
+  </si>
+  <si>
+    <t>'icp4_out3'</t>
+  </si>
+  <si>
+    <t>'relu_icp4_out3'</t>
+  </si>
+  <si>
+    <t>'icp4_out'</t>
+  </si>
+  <si>
+    <t>'icp5_reduction1'</t>
+  </si>
+  <si>
+    <t>'relu_icp5_reduction1'</t>
+  </si>
+  <si>
+    <t>'icp5_reduction2'</t>
+  </si>
+  <si>
+    <t>'relu_icp5_reduction2'</t>
+  </si>
+  <si>
+    <t>'icp5_pool'</t>
+  </si>
+  <si>
+    <t>'icp5_out0'</t>
+  </si>
+  <si>
+    <t>'relu_icp5_out0'</t>
+  </si>
+  <si>
+    <t>'icp5_out1'</t>
+  </si>
+  <si>
+    <t>'relu_icp5_out1'</t>
+  </si>
+  <si>
+    <t>'icp5_out2'</t>
+  </si>
+  <si>
+    <t>'relu_icp5_out2'</t>
+  </si>
+  <si>
+    <t>'icp5_out3'</t>
+  </si>
+  <si>
+    <t>'relu_icp5_out3'</t>
+  </si>
+  <si>
+    <t>'icp5_out'</t>
+  </si>
+  <si>
+    <t>'icp6_reduction1'</t>
+  </si>
+  <si>
+    <t>'relu_icp6_reduction1'</t>
+  </si>
+  <si>
+    <t>'icp6_reduction2'</t>
+  </si>
+  <si>
+    <t>'relu_icp6_reduction2'</t>
+  </si>
+  <si>
+    <t>'icp6_pool'</t>
+  </si>
+  <si>
+    <t>'icp6_out0'</t>
+  </si>
+  <si>
+    <t>'relu_icp6_out0'</t>
+  </si>
+  <si>
+    <t>'icp6_out1'</t>
+  </si>
+  <si>
+    <t>'relu_icp6_out1'</t>
+  </si>
+  <si>
+    <t>'icp6_out2'</t>
+  </si>
+  <si>
+    <t>'relu_icp6_out2'</t>
+  </si>
+  <si>
+    <t>'icp6_out3'</t>
+  </si>
+  <si>
+    <t>'relu_icp6_out3'</t>
+  </si>
+  <si>
+    <t>'icp6_out'</t>
+  </si>
+  <si>
+    <t>'cls2_pool'</t>
+  </si>
+  <si>
+    <t>'cls2_reduction'</t>
+  </si>
+  <si>
+    <t>'relu_cls2_reduction'</t>
+  </si>
+  <si>
+    <t>'cls2_fc1'</t>
+  </si>
+  <si>
+    <t>'relu_cls2_fc1'</t>
+  </si>
+  <si>
+    <t>'cls2_fc2'</t>
+  </si>
+  <si>
+    <t>'icp7_reduction1'</t>
+  </si>
+  <si>
+    <t>'relu_icp7_reduction1'</t>
+  </si>
+  <si>
+    <t>'icp7_reduction2'</t>
+  </si>
+  <si>
+    <t>'relu_icp7_reduction2'</t>
+  </si>
+  <si>
+    <t>'icp7_pool'</t>
+  </si>
+  <si>
+    <t>'icp7_out0'</t>
+  </si>
+  <si>
+    <t>'relu_icp7_out0'</t>
+  </si>
+  <si>
+    <t>'icp7_out1'</t>
+  </si>
+  <si>
+    <t>'relu_icp7_out1'</t>
+  </si>
+  <si>
+    <t>'icp7_out2'</t>
+  </si>
+  <si>
+    <t>'relu_icp7_out2'</t>
+  </si>
+  <si>
+    <t>'icp7_out3'</t>
+  </si>
+  <si>
+    <t>'relu_icp7_out3'</t>
+  </si>
+  <si>
+    <t>'icp7_out'</t>
+  </si>
+  <si>
+    <t>'icp8_in'</t>
+  </si>
+  <si>
+    <t>'icp8_reduction1'</t>
+  </si>
+  <si>
+    <t>'relu_icp8_reduction1'</t>
+  </si>
+  <si>
+    <t>'icp8_reduction2'</t>
+  </si>
+  <si>
+    <t>'relu_icp8_reduction2'</t>
+  </si>
+  <si>
+    <t>'icp8_pool'</t>
+  </si>
+  <si>
+    <t>'icp8_out0'</t>
+  </si>
+  <si>
+    <t>'relu_icp8_out0'</t>
+  </si>
+  <si>
+    <t>'icp8_out1'</t>
+  </si>
+  <si>
+    <t>'relu_icp8_out1'</t>
+  </si>
+  <si>
+    <t>'icp8_out2'</t>
+  </si>
+  <si>
+    <t>'relu_icp8_out2'</t>
+  </si>
+  <si>
+    <t>'icp8_out3'</t>
+  </si>
+  <si>
+    <t>'relu_icp8_out3'</t>
+  </si>
+  <si>
+    <t>'icp8_out'</t>
+  </si>
+  <si>
+    <t>'icp9_reduction1'</t>
+  </si>
+  <si>
+    <t>'relu_icp9_reduction1'</t>
+  </si>
+  <si>
+    <t>'icp9_reduction2'</t>
+  </si>
+  <si>
+    <t>'relu_icp9_reduction2'</t>
+  </si>
+  <si>
+    <t>'icp9_pool'</t>
+  </si>
+  <si>
+    <t>'icp9_out0'</t>
+  </si>
+  <si>
+    <t>'relu_icp9_out0'</t>
+  </si>
+  <si>
+    <t>'icp9_out1'</t>
+  </si>
+  <si>
+    <t>'relu_icp9_out1'</t>
+  </si>
+  <si>
+    <t>'icp9_out2'</t>
+  </si>
+  <si>
+    <t>'relu_icp9_out2'</t>
+  </si>
+  <si>
+    <t>'icp9_out3'</t>
+  </si>
+  <si>
+    <t>'relu_icp9_out3'</t>
+  </si>
+  <si>
+    <t>'icp9_out'</t>
+  </si>
+  <si>
+    <t>'cls3_pool'</t>
+  </si>
+  <si>
+    <t>'cls3_fc'</t>
+  </si>
+  <si>
+    <t>'softmax'</t>
+  </si>
+  <si>
+    <t>Lip const</t>
+  </si>
+  <si>
+    <t>Height</t>
+  </si>
+  <si>
+    <t>Width</t>
+  </si>
+  <si>
+    <t># input Ch</t>
+  </si>
+  <si>
+    <t># Output Ch</t>
+  </si>
+  <si>
+    <t>Stride</t>
+  </si>
+  <si>
+    <t>icp1_out0_filter'</t>
+  </si>
+  <si>
+    <t>conv1_filter'</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -449,8 +994,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -460,6 +1006,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -727,722 +1276,2026 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I128"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CF8FAC2-3294-479E-B4E2-7FE4B9F919BA}">
+  <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B1" t="s">
+        <v>302</v>
+      </c>
+      <c r="C1" t="s">
+        <v>303</v>
+      </c>
+      <c r="D1" t="s">
+        <v>304</v>
+      </c>
+      <c r="E1" t="s">
+        <v>305</v>
+      </c>
+      <c r="F1" t="s">
+        <v>306</v>
+      </c>
+      <c r="G1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B2">
+        <v>5.8608455657959002</v>
+      </c>
+      <c r="C2">
+        <v>7</v>
+      </c>
+      <c r="D2">
+        <v>7</v>
+      </c>
+      <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2">
+        <v>64</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B3">
+        <v>3.41465497016907</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>64</v>
+      </c>
+      <c r="F3">
+        <v>64</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B4">
+        <v>3.0309607982635498</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>64</v>
+      </c>
+      <c r="F4">
+        <v>192</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B5">
+        <v>3.6571957685293399</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>192</v>
+      </c>
+      <c r="F5">
+        <v>496</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>131</v>
+      </c>
+      <c r="B6">
+        <v>5.2917594010749296</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <v>496</v>
+      </c>
+      <c r="F6">
+        <v>256</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>132</v>
+      </c>
+      <c r="B7">
+        <v>3.7994765408893998</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>256</v>
+      </c>
+      <c r="F7">
+        <v>672</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>133</v>
+      </c>
+      <c r="B8">
+        <v>7.6367536775733003</v>
+      </c>
+      <c r="C8">
+        <v>5</v>
+      </c>
+      <c r="D8">
+        <v>5</v>
+      </c>
+      <c r="E8">
+        <v>672</v>
+      </c>
+      <c r="F8">
+        <v>480</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>134</v>
+      </c>
+      <c r="B9">
+        <v>2.6642194818211098</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>480</v>
+      </c>
+      <c r="F9">
+        <v>1072</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>135</v>
+      </c>
+      <c r="B10">
+        <v>6.0129820023039402</v>
+      </c>
+      <c r="C10">
+        <v>5</v>
+      </c>
+      <c r="D10">
+        <v>5</v>
+      </c>
+      <c r="E10">
+        <v>1072</v>
+      </c>
+      <c r="F10">
+        <v>512</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>136</v>
+      </c>
+      <c r="B11">
+        <v>2.6403273171039201</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>512</v>
+      </c>
+      <c r="F11">
+        <v>1160</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>137</v>
+      </c>
+      <c r="B12">
+        <v>5.10298607117375</v>
+      </c>
+      <c r="C12">
+        <v>5</v>
+      </c>
+      <c r="D12">
+        <v>5</v>
+      </c>
+      <c r="E12">
+        <v>1160</v>
+      </c>
+      <c r="F12">
+        <v>512</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>138</v>
+      </c>
+      <c r="B13">
+        <v>2.98259215187703</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>512</v>
+      </c>
+      <c r="F13">
+        <v>1176</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>139</v>
+      </c>
+      <c r="B14">
+        <v>5.5389493378127801</v>
+      </c>
+      <c r="C14">
+        <v>5</v>
+      </c>
+      <c r="D14">
+        <v>5</v>
+      </c>
+      <c r="E14">
+        <v>1176</v>
+      </c>
+      <c r="F14">
+        <v>512</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>140</v>
+      </c>
+      <c r="B15">
+        <v>3.1758426178697099</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>512</v>
+      </c>
+      <c r="F15">
+        <v>1200</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>141</v>
+      </c>
+      <c r="B16">
+        <v>6.7737430934635396</v>
+      </c>
+      <c r="C16">
+        <v>5</v>
+      </c>
+      <c r="D16">
+        <v>5</v>
+      </c>
+      <c r="E16">
+        <v>1200</v>
+      </c>
+      <c r="F16">
+        <v>528</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>142</v>
+      </c>
+      <c r="B17">
+        <v>2.2093845316484102</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>528</v>
+      </c>
+      <c r="F17">
+        <v>1248</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>143</v>
+      </c>
+      <c r="B18">
+        <v>6.5312793749873803</v>
+      </c>
+      <c r="C18">
+        <v>5</v>
+      </c>
+      <c r="D18">
+        <v>5</v>
+      </c>
+      <c r="E18">
+        <v>1248</v>
+      </c>
+      <c r="F18">
+        <v>832</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>144</v>
+      </c>
+      <c r="B19">
+        <v>2.2947610131526002</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>832</v>
+      </c>
+      <c r="F19">
+        <v>1856</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>145</v>
+      </c>
+      <c r="B20">
+        <v>5.5561683496867698</v>
+      </c>
+      <c r="C20">
+        <v>5</v>
+      </c>
+      <c r="D20">
+        <v>5</v>
+      </c>
+      <c r="E20">
+        <v>1856</v>
+      </c>
+      <c r="F20">
+        <v>832</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>146</v>
+      </c>
+      <c r="B21">
+        <v>2.8567207592750798</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>832</v>
+      </c>
+      <c r="F21">
+        <v>1904</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>147</v>
+      </c>
+      <c r="B22">
+        <v>7.0353818475868399</v>
+      </c>
+      <c r="C22">
+        <v>5</v>
+      </c>
+      <c r="D22">
+        <v>5</v>
+      </c>
+      <c r="E22">
+        <v>1904</v>
+      </c>
+      <c r="F22">
+        <v>1024</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>126</v>
+      </c>
+      <c r="B24">
+        <v>0.29906975624424398</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F128"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>309</v>
       </c>
       <c r="F1">
         <v>5.8608455657959002</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
         <v>3.41465497016907</v>
       </c>
-      <c r="H3" t="s">
-        <v>128</v>
-      </c>
-      <c r="I3">
-        <v>0.29906975624424398</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>4</v>
       </c>
       <c r="F5">
         <v>3.0309607982635498</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>6</v>
       </c>
       <c r="F7">
         <v>3.6571957685293399</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>10</v>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>308</v>
       </c>
       <c r="F11">
         <v>5.2917594010749296</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>18</v>
       </c>
       <c r="F19">
         <v>3.7994765408893998</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>22</v>
       </c>
       <c r="F23">
         <v>7.6367536775733003</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>30</v>
       </c>
       <c r="F31">
         <v>2.6642194818211098</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>34</v>
       </c>
       <c r="F35">
         <v>6.0129820023039402</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>46</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>48</v>
       </c>
       <c r="F49">
         <v>2.6403273171039201</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
         <v>50</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>52</v>
       </c>
       <c r="F53">
         <v>5.10298607117375</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
         <v>58</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>60</v>
       </c>
       <c r="F61">
         <v>2.98259215187703</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
         <v>62</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
-        <v>64</v>
       </c>
       <c r="F65">
         <v>5.5389493378127801</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
         <v>70</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
-        <v>72</v>
       </c>
       <c r="F73">
         <v>3.1758426178697099</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
         <v>74</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
-        <v>76</v>
       </c>
       <c r="F77">
         <v>6.7737430934635396</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
         <v>88</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
-        <v>90</v>
       </c>
       <c r="F91">
         <v>2.2093845316484102</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
         <v>92</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A94" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A95" t="s">
-        <v>94</v>
       </c>
       <c r="F95">
         <v>6.5312793749873803</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A97" t="s">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A98" t="s">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A99" t="s">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A100" t="s">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A101" t="s">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
         <v>100</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A102" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A103" t="s">
-        <v>102</v>
       </c>
       <c r="F103">
         <v>2.2947610131526002</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A105" t="s">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
         <v>104</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A106" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A107" t="s">
-        <v>106</v>
       </c>
       <c r="F107">
         <v>5.5561683496867698</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A109" t="s">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A110" t="s">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A111" t="s">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A112" t="s">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A113" t="s">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
         <v>112</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A114" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A115" t="s">
-        <v>114</v>
       </c>
       <c r="F115">
         <v>2.8567207592750798</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A117" t="s">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
         <v>116</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A118" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A119" t="s">
-        <v>118</v>
       </c>
       <c r="F119">
         <v>7.0353818475868399</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>125</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51CA141E-29CF-451F-92BE-4A773D827026}">
+  <dimension ref="A1:A153"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>127</v>
+        <v>276</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>301</v>
       </c>
     </row>
   </sheetData>
